--- a/frontend/public/assets/burtgel_zagvar.xlsx
+++ b/frontend/public/assets/burtgel_zagvar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
   <si>
     <t>Суралцагчдын код</t>
   </si>
@@ -52,12 +52,24 @@
     <t>2022-7081 /судалгаа/</t>
   </si>
   <si>
+    <t>Эр</t>
+  </si>
+  <si>
+    <t>Суралцаж буй</t>
+  </si>
+  <si>
     <t>Сургалтын бодлого, төлөвлөлтийн газар</t>
   </si>
   <si>
     <t>2022-7081 /мэргэжил/</t>
   </si>
   <si>
+    <t>Эм</t>
+  </si>
+  <si>
+    <t>Төгссөн</t>
+  </si>
+  <si>
     <t>Инженер, техникийн тэнхим</t>
   </si>
   <si>
@@ -133,130 +145,184 @@
     <t>Онцгой байдлын удирдлага, стратегийн тэнхим</t>
   </si>
   <si>
+    <t>2342</t>
+  </si>
+  <si>
+    <t>Хилийн албаны тэнхим</t>
+  </si>
+  <si>
+    <t>7021</t>
+  </si>
+  <si>
+    <t>Хилийн боомтын аюулгүй байдал, шалган нэвтрүүлэх албаны тэнхим</t>
+  </si>
+  <si>
     <t>441</t>
   </si>
   <si>
-    <t>Хилийн албаны тэнхим</t>
-  </si>
-  <si>
-    <t>2342</t>
-  </si>
-  <si>
-    <t>Хилийн боомтын аюулгүй байдал, шалган нэвтрүүлэх албаны тэнхим</t>
-  </si>
-  <si>
-    <t>7021</t>
-  </si>
-  <si>
     <t>Ар тал, эдийн засгийн тэнхим</t>
   </si>
   <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>Сэтгэл зүйн тэнхим</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>Нийгмийн ажил, сэтгэл зүйн тэнхим</t>
+  </si>
+  <si>
+    <t>446</t>
+  </si>
+  <si>
+    <t>Цэргийн хэргийн тэнхим</t>
+  </si>
+  <si>
+    <t>2023-7091</t>
+  </si>
+  <si>
+    <t>Хорихоос өөр төрлийн ял эдлүүлэх ажиллагааны тэнхим</t>
+  </si>
+  <si>
+    <t>2021-4331/4311-1</t>
+  </si>
+  <si>
+    <t>Нийгмийн ухааны тэнхим</t>
+  </si>
+  <si>
     <t>442</t>
   </si>
   <si>
-    <t>Сэтгэл зүйн тэнхим</t>
+    <t>Нийтийн эрх зүйн тэнхим</t>
+  </si>
+  <si>
+    <t>2022-7061</t>
+  </si>
+  <si>
+    <t>Хувийн эрх зүйн тэнхим</t>
+  </si>
+  <si>
+    <t>2022-7071</t>
+  </si>
+  <si>
+    <t>Криминалистикийн шинжилгээний тэнхим</t>
+  </si>
+  <si>
+    <t>2022-7021</t>
+  </si>
+  <si>
+    <t>Байгалийн ухаан, техник зүйн шинжилгээний тэнхим</t>
+  </si>
+  <si>
+    <t>244 чангшин</t>
+  </si>
+  <si>
+    <t>Цагдаагийн албаны тэнхим</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>Онцгой байдлын албаны тэнхим</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>Шүүхийн шийдвэр гүйцэтгэлийн албаны тэнхим</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>Тактикийн тэнхим</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>Цагдаагийн эрх зүйн тэнхим</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>Эрүүгийн эрх зүй, криминологийн тэнхим</t>
+  </si>
+  <si>
+    <t>2022-7081</t>
+  </si>
+  <si>
+    <t>Гэмт явдал, цагдаа судлалын төв</t>
+  </si>
+  <si>
+    <t>2020-641</t>
+  </si>
+  <si>
+    <t>Шүүхийн шийдвэр гүйцэтгэлийн удирдлага, стратегийн тэнхим</t>
+  </si>
+  <si>
+    <t>2020-642</t>
+  </si>
+  <si>
+    <t>2019-6551</t>
+  </si>
+  <si>
+    <t>Харуул хамгаалалт, гүйцэтгэх ажлын тэнхим</t>
+  </si>
+  <si>
+    <t>2021-6331</t>
+  </si>
+  <si>
+    <t>Шинжлэн магадлахуйн судлалын төв</t>
   </si>
   <si>
     <t>2022-7041</t>
   </si>
   <si>
-    <t>Нийгмийн ажил, сэтгэл зүйн тэнхим</t>
-  </si>
-  <si>
-    <t>443</t>
-  </si>
-  <si>
-    <t>Цэргийн хэргийн тэнхим</t>
-  </si>
-  <si>
-    <t>444</t>
-  </si>
-  <si>
-    <t>Хорихоос өөр төрлийн ял эдлүүлэх ажиллагааны тэнхим</t>
-  </si>
-  <si>
-    <t>446</t>
-  </si>
-  <si>
-    <t>Нийгмийн ухааны тэнхим</t>
-  </si>
-  <si>
-    <t>2023-7091</t>
-  </si>
-  <si>
-    <t>Нийтийн эрх зүйн тэнхим</t>
-  </si>
-  <si>
-    <t>2022-7081</t>
-  </si>
-  <si>
-    <t>Хувийн эрх зүйн тэнхим</t>
-  </si>
-  <si>
-    <t>2022-7061</t>
-  </si>
-  <si>
-    <t>Криминалистикийн шинжилгээний тэнхим</t>
-  </si>
-  <si>
-    <t>2022-7071</t>
-  </si>
-  <si>
-    <t>Байгалийн ухаан, техник зүйн шинжилгээний тэнхим</t>
-  </si>
-  <si>
-    <t>2022-7021</t>
-  </si>
-  <si>
-    <t>Цагдаагийн албаны тэнхим</t>
-  </si>
-  <si>
-    <t>244 чангшин</t>
-  </si>
-  <si>
-    <t>Онцгой байдлын албаны тэнхим</t>
-  </si>
-  <si>
-    <t>Шүүхийн шийдвэр гүйцэтгэлийн албаны тэнхим</t>
-  </si>
-  <si>
-    <t>Тактикийн тэнхим</t>
-  </si>
-  <si>
-    <t>Цагдаагийн эрх зүйн тэнхим</t>
-  </si>
-  <si>
-    <t>Эрүүгийн эрх зүй, криминологийн тэнхим</t>
-  </si>
-  <si>
-    <t>Гэмт явдал, цагдаа судлалын төв</t>
-  </si>
-  <si>
-    <t>Шүүхийн шийдвэр гүйцэтгэлийн удирдлага, стратегийн тэнхим</t>
-  </si>
-  <si>
-    <t>Харуул хамгаалалт, гүйцэтгэх ажлын тэнхим</t>
-  </si>
-  <si>
-    <t>Шинжлэн магадлахуйн судлалын төв</t>
+    <t>3221</t>
   </si>
   <si>
     <t>Эрүүгийн процессын эрх зүйн тэнхим</t>
   </si>
   <si>
+    <t>3331</t>
+  </si>
+  <si>
     <t>Мөрдөх арга зүйн тэнхим</t>
   </si>
   <si>
+    <t>3332</t>
+  </si>
+  <si>
     <t>Гүйцэтгэх ажлын тэнхим</t>
   </si>
   <si>
+    <t>2020-541</t>
+  </si>
+  <si>
     <t>Замын цагдаагийн тэнхим</t>
   </si>
   <si>
+    <t>2021-5331</t>
+  </si>
+  <si>
     <t>Дотоодын цэргийн албаны тэнхим</t>
   </si>
   <si>
+    <t>2019-5551</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
     <t>Аюулгүй байдлын тэнхим</t>
+  </si>
+  <si>
+    <t>3222</t>
   </si>
   <si>
     <t>Ял эдлүүлэх эрх зүйн тэнхим</t>
@@ -620,20 +686,20 @@
   <sheetPr>
     <tabColor rgb="FFA8BDE0"/>
   </sheetPr>
-  <dimension ref="A1:Y56"/>
+  <dimension ref="A1:AA56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="10" width="30" customWidth="1"/>
-    <col min="24" max="25" width="0" hidden="1" customWidth="1"/>
+    <col min="24" max="27" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,370 +736,439 @@
       <c r="Y1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="Z1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="X2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="X3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Y3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="X4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="X5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="X6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Y6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="X7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Y7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="X8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Y8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="X9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Y9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="X10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Y10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="X11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="X12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Y12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="X13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="X14" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Y14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="X15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Y15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="X16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Y16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Y17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X18" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Y18" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X19" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Y19" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X20" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Y20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X21" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Y21" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X22" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Y22" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X23" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Y23" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Y24" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X25" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Y26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X27" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Y27" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X28" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Y28" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X29" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X30" t="s">
-        <v>67</v>
+        <v>72</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X31" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="24:24" ht="15" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="24:24" ht="15" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="24:24" ht="15" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="24:24" ht="15" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X36" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="24:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="24:24" ht="15" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="24:24" ht="15" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="24:24" ht="15" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="24:24" ht="15" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="24:24" ht="15" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="24:24" ht="15" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="24:24" ht="15" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="24:24" ht="15" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="24:24" ht="15" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X46" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="24:24" ht="15" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="24:24" ht="15" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="24:25" ht="15" x14ac:dyDescent="0.25">
       <c r="X48" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="24:24" ht="15" x14ac:dyDescent="0.25">
       <c r="X49" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="24:24" ht="15" x14ac:dyDescent="0.25">
       <c r="X50" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="24:24" ht="15" x14ac:dyDescent="0.25">
       <c r="X51" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="24:24" ht="15" x14ac:dyDescent="0.25">
       <c r="X52" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="24:24" ht="15" x14ac:dyDescent="0.25">
       <c r="X53" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="24:24" ht="15" x14ac:dyDescent="0.25">
       <c r="X54" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="24:24" ht="15" x14ac:dyDescent="0.25">
       <c r="X55" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="24:24" ht="15" x14ac:dyDescent="0.25">
       <c r="X56" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
       <formula1>$X$1:$X$56</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
-      <formula1>$Y$1:$Y$28</formula1>
+      <formula1>$Y$1:$Y$46</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+      <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
